--- a/artfynd/A 40386-2020.xlsx
+++ b/artfynd/A 40386-2020.xlsx
@@ -940,10 +940,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97022725</v>
+        <v>97022737</v>
       </c>
       <c r="B4" t="n">
-        <v>90130</v>
+        <v>85254</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,25 +952,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1958</v>
+        <v>249228</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lammticka</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Albatrellus subrubescens</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Murrill) Pouzar</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -985,14 +985,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Abborrselmon, öst om kraftledning i NV, Jmt</t>
+          <t>Abborrselmon, väst om kraftledning i NV, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>542935.3525043444</v>
+        <v>542677.5135761717</v>
       </c>
       <c r="R4" t="n">
-        <v>6969356.376306581</v>
+        <v>6969417.407723305</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>gammal kalkpåverkad sandtallskog med graninslag i nederkant av nipa</t>
+          <t>gammal kalkpåverkad barrskog i nederkant av sandig nipa</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97022729</v>
+        <v>97022725</v>
       </c>
       <c r="B5" t="n">
         <v>90130</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542861.7670970106</v>
+        <v>542935.3525043444</v>
       </c>
       <c r="R5" t="n">
-        <v>6969387.384421867</v>
+        <v>6969356.376306581</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97022737</v>
+        <v>97022729</v>
       </c>
       <c r="B6" t="n">
-        <v>85254</v>
+        <v>90130</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>249228</v>
+        <v>1958</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Lammticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Albatrellus subrubescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Murrill) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1245,14 +1245,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Abborrselmon, väst om kraftledning i NV, Jmt</t>
+          <t>Abborrselmon, öst om kraftledning i NV, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542677.5135761717</v>
+        <v>542861.7670970106</v>
       </c>
       <c r="R6" t="n">
-        <v>6969417.407723305</v>
+        <v>6969387.384421867</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>gammal kalkpåverkad barrskog i nederkant av sandig nipa</t>
+          <t>gammal kalkpåverkad sandtallskog med graninslag i nederkant av nipa</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>

--- a/artfynd/A 40386-2020.xlsx
+++ b/artfynd/A 40386-2020.xlsx
@@ -940,10 +940,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97022737</v>
+        <v>97022725</v>
       </c>
       <c r="B4" t="n">
-        <v>85254</v>
+        <v>90130</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,25 +952,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>249228</v>
+        <v>1958</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Lammticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Albatrellus subrubescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Murrill) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -985,14 +985,14 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Abborrselmon, väst om kraftledning i NV, Jmt</t>
+          <t>Abborrselmon, öst om kraftledning i NV, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>542677.5135761717</v>
+        <v>542935.3525043444</v>
       </c>
       <c r="R4" t="n">
-        <v>6969417.407723305</v>
+        <v>6969356.376306581</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>gammal kalkpåverkad barrskog i nederkant av sandig nipa</t>
+          <t>gammal kalkpåverkad sandtallskog med graninslag i nederkant av nipa</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97022725</v>
+        <v>97022729</v>
       </c>
       <c r="B5" t="n">
         <v>90130</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>542935.3525043444</v>
+        <v>542861.7670970106</v>
       </c>
       <c r="R5" t="n">
-        <v>6969356.376306581</v>
+        <v>6969387.384421867</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97022729</v>
+        <v>97022737</v>
       </c>
       <c r="B6" t="n">
-        <v>90130</v>
+        <v>85254</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1958</v>
+        <v>249228</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lammticka</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Albatrellus subrubescens</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Murrill) Pouzar</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1245,14 +1245,14 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Abborrselmon, öst om kraftledning i NV, Jmt</t>
+          <t>Abborrselmon, väst om kraftledning i NV, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>542861.7670970106</v>
+        <v>542677.5135761717</v>
       </c>
       <c r="R6" t="n">
-        <v>6969387.384421867</v>
+        <v>6969417.407723305</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>gammal kalkpåverkad sandtallskog med graninslag i nederkant av nipa</t>
+          <t>gammal kalkpåverkad barrskog i nederkant av sandig nipa</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
